--- a/IMKL2.x/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/IMKL2.x/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\beheer van issues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07C541-56BB-4904-B3A7-5BA8D0EDB570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0E427-B1E1-4C15-A4DD-5A61A3F7B4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="319">
   <si>
     <t>Nr</t>
   </si>
@@ -989,9 +989,6 @@
     <t>klein, documentatie</t>
   </si>
   <si>
-    <t>klein, aanpassen waardelijst</t>
-  </si>
-  <si>
     <t>attributen</t>
   </si>
   <si>
@@ -1155,6 +1152,21 @@
   </si>
   <si>
     <t>constraint in xtraregels</t>
+  </si>
+  <si>
+    <t>klein, aanpassen waardelijst. Is in waardelijst check later de publicatie op website</t>
+  </si>
+  <si>
+    <t>waardelijst, uml</t>
+  </si>
+  <si>
+    <t>vraag aan Herman</t>
+  </si>
+  <si>
+    <t>verwerkt, maar liever in waardeblad</t>
+  </si>
+  <si>
+    <t>in proces</t>
   </si>
 </sst>
 </file>
@@ -2342,10 +2354,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2420,7 @@
       </c>
       <c r="M1" s="90"/>
       <c r="N1" s="90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O1" s="62" t="s">
         <v>142</v>
@@ -2584,7 +2596,9 @@
       <c r="M6" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N6" s="99"/>
+      <c r="N6" s="99" t="s">
+        <v>305</v>
+      </c>
       <c r="O6" s="58"/>
       <c r="P6" s="11">
         <v>286</v>
@@ -2749,7 +2763,7 @@
         <v>254</v>
       </c>
       <c r="N10" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O10" s="58"/>
       <c r="P10" s="11">
@@ -2799,7 +2813,7 @@
         <v>256</v>
       </c>
       <c r="N11" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O11" s="58"/>
       <c r="P11" s="11">
@@ -2849,7 +2863,7 @@
         <v>256</v>
       </c>
       <c r="N12" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O12" s="58"/>
       <c r="P12" s="11">
@@ -2900,7 +2914,7 @@
       </c>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>16</v>
       </c>
@@ -2929,12 +2943,14 @@
       <c r="J14" s="15"/>
       <c r="K14" s="96"/>
       <c r="L14" s="97" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="M14" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N14" s="99"/>
+      <c r="N14" s="99" t="s">
+        <v>305</v>
+      </c>
       <c r="O14" s="58"/>
       <c r="P14" s="11">
         <v>277</v>
@@ -2975,10 +2991,10 @@
       <c r="J15" s="15"/>
       <c r="K15" s="96"/>
       <c r="L15" s="97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M15" s="99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N15" s="99"/>
       <c r="O15" s="58"/>
@@ -3048,7 +3064,7 @@
         <v>257</v>
       </c>
       <c r="M17" s="99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N17" s="99"/>
       <c r="O17" s="58"/>
@@ -3092,7 +3108,7 @@
         <v>257</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N18" s="99"/>
       <c r="O18" s="58"/>
@@ -3173,12 +3189,14 @@
       <c r="J20" s="15"/>
       <c r="K20" s="96"/>
       <c r="L20" s="97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M20" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="N20" s="99"/>
+        <v>315</v>
+      </c>
+      <c r="N20" s="99" t="s">
+        <v>305</v>
+      </c>
       <c r="O20" s="58"/>
       <c r="P20" s="11">
         <v>250</v>
@@ -3217,13 +3235,13 @@
       <c r="J21" s="15"/>
       <c r="K21" s="96"/>
       <c r="L21" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M21" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N21" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O21" s="58"/>
       <c r="P21" s="11">
@@ -3265,13 +3283,13 @@
       <c r="J22" s="15"/>
       <c r="K22" s="96"/>
       <c r="L22" s="97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M22" s="99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N22" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O22" s="58"/>
       <c r="P22" s="11">
@@ -3317,7 +3335,7 @@
         <v>254</v>
       </c>
       <c r="N23" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O23" s="58"/>
       <c r="P23" s="11">
@@ -3360,10 +3378,10 @@
         <v>257</v>
       </c>
       <c r="M24" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N24" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O24" s="58"/>
       <c r="P24" s="11">
@@ -3403,10 +3421,10 @@
       <c r="J25" s="15"/>
       <c r="K25" s="96"/>
       <c r="L25" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M25" s="99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N25" s="99"/>
       <c r="O25" s="58"/>
@@ -3532,10 +3550,10 @@
       <c r="K28" s="96"/>
       <c r="L28" s="97"/>
       <c r="M28" s="99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N28" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O28" s="58"/>
       <c r="P28" s="11">
@@ -3575,7 +3593,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="96"/>
       <c r="L29" s="97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
@@ -3617,13 +3635,13 @@
       <c r="J30" s="15"/>
       <c r="K30" s="96"/>
       <c r="L30" s="97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M30" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N30" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O30" s="58"/>
       <c r="P30" s="11">
@@ -3686,13 +3704,13 @@
         <v>192</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M32" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N32" s="99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O32" s="58"/>
       <c r="P32" s="11">
@@ -3733,9 +3751,11 @@
         <v>257</v>
       </c>
       <c r="M33" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="N33" s="99"/>
+        <v>276</v>
+      </c>
+      <c r="N33" s="99" t="s">
+        <v>316</v>
+      </c>
       <c r="O33" s="58"/>
       <c r="P33" s="11">
         <v>194</v>
@@ -3777,10 +3797,10 @@
         <v>257</v>
       </c>
       <c r="M34" s="99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N34" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O34" s="58"/>
       <c r="P34" s="11">
@@ -3822,10 +3842,10 @@
         <v>195</v>
       </c>
       <c r="L35" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" s="99" t="s">
         <v>307</v>
-      </c>
-      <c r="M35" s="99" t="s">
-        <v>308</v>
       </c>
       <c r="N35" s="99"/>
       <c r="O35" s="58"/>
@@ -3869,10 +3889,10 @@
         <v>257</v>
       </c>
       <c r="M36" s="99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N36" s="99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O36" s="58"/>
       <c r="P36" s="11">
@@ -3915,10 +3935,10 @@
         <v>257</v>
       </c>
       <c r="M37" s="99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N37" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O37" s="58"/>
       <c r="P37" s="11">
@@ -4078,7 +4098,7 @@
         <v>164</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H41" s="57"/>
       <c r="I41" s="91" t="s">
@@ -4092,7 +4112,9 @@
       <c r="M41" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N41" s="99"/>
+      <c r="N41" s="99" t="s">
+        <v>317</v>
+      </c>
       <c r="O41" s="58"/>
       <c r="P41" s="11">
         <v>246</v>
@@ -4122,7 +4144,7 @@
         <v>164</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H42" s="57"/>
       <c r="I42" s="91" t="s">
@@ -4133,12 +4155,14 @@
         <v>275</v>
       </c>
       <c r="L42" s="97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M42" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N42" s="99"/>
+      <c r="N42" s="99" t="s">
+        <v>318</v>
+      </c>
       <c r="O42" s="58"/>
       <c r="P42" s="11">
         <v>232</v>
@@ -4386,7 +4410,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="96"/>
       <c r="L48" s="97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M48" s="99"/>
       <c r="N48" s="99"/>
@@ -4436,7 +4460,7 @@
         <v>254</v>
       </c>
       <c r="N49" s="99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O49" s="58"/>
       <c r="P49" s="11">
@@ -4467,7 +4491,7 @@
         <v>164</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H50" s="57"/>
       <c r="I50" s="91" t="s">
@@ -4478,12 +4502,14 @@
         <v>232</v>
       </c>
       <c r="L50" s="97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M50" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="N50" s="99"/>
+        <v>261</v>
+      </c>
+      <c r="N50" s="99" t="s">
+        <v>318</v>
+      </c>
       <c r="O50" s="58"/>
       <c r="P50" s="11">
         <v>275</v>
@@ -5395,49 +5421,49 @@
       <c r="B1" s="101"/>
       <c r="C1" s="106"/>
       <c r="D1" s="109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
       <c r="G1" s="106"/>
       <c r="H1" s="109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I1" s="101"/>
       <c r="J1" s="101"/>
       <c r="K1" s="106"/>
       <c r="L1" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M1" s="101"/>
       <c r="N1" s="101"/>
       <c r="O1" s="106"/>
       <c r="P1" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
       <c r="S1" s="106"/>
       <c r="T1" s="109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U1" s="101"/>
       <c r="V1" s="101"/>
       <c r="W1" s="106"/>
       <c r="X1" s="109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y1" s="101"/>
       <c r="Z1" s="101"/>
       <c r="AA1" s="106"/>
       <c r="AB1" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC1" s="101"/>
       <c r="AD1" s="101"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG1" s="112"/>
       <c r="AH1" s="112"/>
@@ -5584,7 +5610,7 @@
     </row>
     <row r="3" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="108"/>
@@ -5642,7 +5668,7 @@
     </row>
     <row r="4" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="107"/>
@@ -5700,7 +5726,7 @@
     </row>
     <row r="5" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5" s="121"/>
       <c r="C5" s="108"/>
@@ -5758,7 +5784,7 @@
     </row>
     <row r="6" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="126"/>
       <c r="C6" s="107"/>
@@ -5816,7 +5842,7 @@
     </row>
     <row r="7" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="126"/>
       <c r="C7" s="107"/>
@@ -5874,7 +5900,7 @@
     </row>
     <row r="8" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="129"/>
       <c r="C8" s="108"/>
@@ -5988,18 +6014,18 @@
     </row>
     <row r="10" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="102"/>
       <c r="C10" s="107"/>
       <c r="D10" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G10" s="107"/>
       <c r="H10" s="110"/>
@@ -6052,23 +6078,23 @@
     </row>
     <row r="11" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="107"/>
       <c r="D11" s="110"/>
       <c r="E11" s="102"/>
       <c r="F11" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J11" s="102"/>
       <c r="K11" s="107"/>
@@ -6118,23 +6144,23 @@
     </row>
     <row r="12" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" s="102"/>
       <c r="C12" s="107"/>
       <c r="D12" s="110"/>
       <c r="E12" s="102"/>
       <c r="F12" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H12" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="107"/>
@@ -6184,25 +6210,25 @@
     </row>
     <row r="13" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="102"/>
       <c r="C13" s="107"/>
       <c r="D13" s="110"/>
       <c r="E13" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H13" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="107"/>
@@ -6252,25 +6278,25 @@
     </row>
     <row r="14" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="107"/>
       <c r="D14" s="110"/>
       <c r="E14" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="107"/>
@@ -6320,22 +6346,22 @@
     </row>
     <row r="15" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="107"/>
       <c r="D15" s="110"/>
       <c r="E15" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F15" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H15" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
@@ -6386,25 +6412,25 @@
     </row>
     <row r="16" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="107"/>
       <c r="D16" s="110"/>
       <c r="E16" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H16" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="107"/>
@@ -6454,25 +6480,25 @@
     </row>
     <row r="17" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="102"/>
       <c r="C17" s="107"/>
       <c r="D17" s="110"/>
       <c r="E17" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H17" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J17" s="102"/>
       <c r="K17" s="107"/>
@@ -6522,21 +6548,21 @@
     </row>
     <row r="18" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" s="102"/>
       <c r="C18" s="107"/>
       <c r="D18" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="102"/>
@@ -6588,25 +6614,25 @@
     </row>
     <row r="19" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" s="102"/>
       <c r="C19" s="107"/>
       <c r="D19" s="110"/>
       <c r="E19" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G19" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H19" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J19" s="102"/>
       <c r="K19" s="107"/>
@@ -6656,25 +6682,25 @@
     </row>
     <row r="20" spans="1:54" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="102"/>
       <c r="C20" s="107"/>
       <c r="D20" s="110"/>
       <c r="E20" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G20" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J20" s="102"/>
       <c r="K20" s="107"/>
@@ -6724,7 +6750,7 @@
     </row>
     <row r="21" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B21" s="102"/>
       <c r="C21" s="107"/>
@@ -6733,10 +6759,10 @@
       <c r="F21" s="102"/>
       <c r="G21" s="107"/>
       <c r="H21" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J21" s="102"/>
       <c r="K21" s="107"/>

--- a/IMKL2.x/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/IMKL2.x/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0E427-B1E1-4C15-A4DD-5A61A3F7B4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB42131-E427-4A37-A330-BFA87E8D23E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="323">
   <si>
     <t>Nr</t>
   </si>
@@ -1133,9 +1133,6 @@
     <t>nog niet duidelijk</t>
   </si>
   <si>
-    <t>oplossing is mij nog niet duidelijk</t>
-  </si>
-  <si>
     <t>klein waardelijst en cardinaliteit en constraint</t>
   </si>
   <si>
@@ -1148,9 +1145,6 @@
     <t>constraint is verwerkt</t>
   </si>
   <si>
-    <t>constraint in tekst opgenomen, geen ocl</t>
-  </si>
-  <si>
     <t>constraint in xtraregels</t>
   </si>
   <si>
@@ -1160,13 +1154,31 @@
     <t>waardelijst, uml</t>
   </si>
   <si>
-    <t>vraag aan Herman</t>
-  </si>
-  <si>
     <t>verwerkt, maar liever in waardeblad</t>
   </si>
   <si>
     <t>in proces</t>
+  </si>
+  <si>
+    <t>parkeren</t>
+  </si>
+  <si>
+    <t>is al geregeld in 195</t>
+  </si>
+  <si>
+    <t>in namespace?</t>
+  </si>
+  <si>
+    <t>in extra regels iets aanpassen. Deels verwerkt</t>
+  </si>
+  <si>
+    <t>verwerkt. constraint in tekst opgenomen, geen ocl</t>
+  </si>
+  <si>
+    <t>in 269 wordt juist gezegd dat features maar aan 1 netwerk gekoppeld mogen worden.</t>
+  </si>
+  <si>
+    <t>klein, pas ook definitie BAGid aan</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2029,6 +2041,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2354,10 +2372,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2658,7 @@
         <v>249</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="N7" s="99"/>
       <c r="O7" s="58"/>
@@ -2943,7 +2961,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="96"/>
       <c r="L14" s="97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M14" s="99" t="s">
         <v>255</v>
@@ -3028,7 +3046,7 @@
       <c r="Q16" s="66"/>
       <c r="R16" s="67"/>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>19</v>
       </c>
@@ -3066,7 +3084,9 @@
       <c r="M17" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="N17" s="99"/>
+      <c r="N17" s="137" t="s">
+        <v>319</v>
+      </c>
       <c r="O17" s="58"/>
       <c r="P17" s="11">
         <v>269</v>
@@ -3192,7 +3212,7 @@
         <v>267</v>
       </c>
       <c r="M20" s="99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N20" s="99" t="s">
         <v>305</v>
@@ -3328,8 +3348,8 @@
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="96"/>
-      <c r="L23" s="97" t="s">
-        <v>257</v>
+      <c r="L23" s="136" t="s">
+        <v>322</v>
       </c>
       <c r="M23" s="99" t="s">
         <v>254</v>
@@ -3424,7 +3444,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N25" s="99"/>
       <c r="O25" s="58"/>
@@ -3468,7 +3488,9 @@
       </c>
       <c r="L26" s="97"/>
       <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
+      <c r="N26" s="99" t="s">
+        <v>316</v>
+      </c>
       <c r="O26" s="58"/>
       <c r="P26" s="11">
         <v>196</v>
@@ -3593,7 +3615,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="96"/>
       <c r="L29" s="97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
@@ -3704,13 +3726,13 @@
         <v>192</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M32" s="99" t="s">
         <v>269</v>
       </c>
       <c r="N32" s="99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O32" s="58"/>
       <c r="P32" s="11">
@@ -3754,7 +3776,7 @@
         <v>276</v>
       </c>
       <c r="N33" s="99" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O33" s="58"/>
       <c r="P33" s="11">
@@ -3844,10 +3866,10 @@
       <c r="L35" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="M35" s="99" t="s">
-        <v>307</v>
-      </c>
-      <c r="N35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99" t="s">
+        <v>317</v>
+      </c>
       <c r="O35" s="58"/>
       <c r="P35" s="11">
         <v>192</v>
@@ -3892,7 +3914,7 @@
         <v>269</v>
       </c>
       <c r="N36" s="99" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O36" s="58"/>
       <c r="P36" s="11">
@@ -3935,7 +3957,7 @@
         <v>257</v>
       </c>
       <c r="M37" s="99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N37" s="99" t="s">
         <v>305</v>
@@ -4033,7 +4055,7 @@
       </c>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>43</v>
       </c>
@@ -4065,7 +4087,9 @@
       <c r="K40" s="96">
         <v>269</v>
       </c>
-      <c r="L40" s="97"/>
+      <c r="L40" s="97" t="s">
+        <v>321</v>
+      </c>
       <c r="M40" s="99"/>
       <c r="N40" s="99"/>
       <c r="O40" s="58"/>
@@ -4113,7 +4137,7 @@
         <v>255</v>
       </c>
       <c r="N41" s="99" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O41" s="58"/>
       <c r="P41" s="11">
@@ -4161,7 +4185,7 @@
         <v>255</v>
       </c>
       <c r="N42" s="99" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O42" s="58"/>
       <c r="P42" s="11">
@@ -4508,7 +4532,7 @@
         <v>261</v>
       </c>
       <c r="N50" s="99" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O50" s="58"/>
       <c r="P50" s="11">

--- a/IMKL2.x/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/IMKL2.x/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB42131-E427-4A37-A330-BFA87E8D23E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9BA79-9A21-4736-A8FD-8BA404CDAF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="326">
   <si>
     <t>Nr</t>
   </si>
@@ -971,9 +971,6 @@
     <t>attribuut verplichten</t>
   </si>
   <si>
-    <t>PMKL/IMKL</t>
-  </si>
-  <si>
     <t>cardinaliteit</t>
   </si>
   <si>
@@ -1142,9 +1139,6 @@
     <t>geen effect op model</t>
   </si>
   <si>
-    <t>constraint is verwerkt</t>
-  </si>
-  <si>
     <t>constraint in xtraregels</t>
   </si>
   <si>
@@ -1169,16 +1163,31 @@
     <t>in namespace?</t>
   </si>
   <si>
-    <t>in extra regels iets aanpassen. Deels verwerkt</t>
-  </si>
-  <si>
-    <t>verwerkt. constraint in tekst opgenomen, geen ocl</t>
-  </si>
-  <si>
     <t>in 269 wordt juist gezegd dat features maar aan 1 netwerk gekoppeld mogen worden.</t>
   </si>
   <si>
     <t>klein, pas ook definitie BAGid aan</t>
+  </si>
+  <si>
+    <t>constraint. Check of xtra regels goed is</t>
+  </si>
+  <si>
+    <t>constraint is verwerkt in uml en xtra regels</t>
+  </si>
+  <si>
+    <t>verwerkt uml en xtra regels</t>
+  </si>
+  <si>
+    <t>verwerkt in uml en xtra regels</t>
+  </si>
+  <si>
+    <t>constraint, xtra regsl</t>
+  </si>
+  <si>
+    <t>verwerkt in xtra regels</t>
+  </si>
+  <si>
+    <t>in extra regels iets aanpassen. Deels verwerkt. In UML verwerkt</t>
   </si>
 </sst>
 </file>
@@ -2375,7 +2384,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,8 +2397,8 @@
     <col min="6" max="6" width="13.5703125" style="56" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="85" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="6" customWidth="1"/>
     <col min="12" max="14" width="17.85546875" style="98" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
@@ -2438,7 +2447,7 @@
       </c>
       <c r="M1" s="90"/>
       <c r="N1" s="90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O1" s="62" t="s">
         <v>142</v>
@@ -2612,10 +2621,10 @@
         <v>250</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N6" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O6" s="58"/>
       <c r="P6" s="11">
@@ -2658,7 +2667,7 @@
         <v>249</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N7" s="99"/>
       <c r="O7" s="58"/>
@@ -2775,13 +2784,13 @@
       <c r="J10" s="15"/>
       <c r="K10" s="96"/>
       <c r="L10" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N10" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O10" s="58"/>
       <c r="P10" s="11">
@@ -2825,13 +2834,13 @@
         <v>210</v>
       </c>
       <c r="L11" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M11" s="99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N11" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O11" s="58"/>
       <c r="P11" s="11">
@@ -2875,13 +2884,13 @@
         <v>240</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M12" s="99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N12" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O12" s="58"/>
       <c r="P12" s="11">
@@ -2961,13 +2970,13 @@
       <c r="J14" s="15"/>
       <c r="K14" s="96"/>
       <c r="L14" s="97" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M14" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N14" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="11">
@@ -3009,10 +3018,10 @@
       <c r="J15" s="15"/>
       <c r="K15" s="96"/>
       <c r="L15" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M15" s="99" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N15" s="99"/>
       <c r="O15" s="58"/>
@@ -3079,13 +3088,13 @@
         <v>181</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M17" s="99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N17" s="137" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O17" s="58"/>
       <c r="P17" s="11">
@@ -3125,12 +3134,14 @@
       <c r="J18" s="15"/>
       <c r="K18" s="96"/>
       <c r="L18" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="N18" s="99"/>
+        <v>264</v>
+      </c>
+      <c r="N18" s="99" t="s">
+        <v>304</v>
+      </c>
       <c r="O18" s="58"/>
       <c r="P18" s="11">
         <v>268</v>
@@ -3209,13 +3220,13 @@
       <c r="J20" s="15"/>
       <c r="K20" s="96"/>
       <c r="L20" s="97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M20" s="99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N20" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="11">
@@ -3255,13 +3266,13 @@
       <c r="J21" s="15"/>
       <c r="K21" s="96"/>
       <c r="L21" s="97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M21" s="99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N21" s="99" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="O21" s="58"/>
       <c r="P21" s="11">
@@ -3303,13 +3314,13 @@
       <c r="J22" s="15"/>
       <c r="K22" s="96"/>
       <c r="L22" s="97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M22" s="99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N22" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O22" s="58"/>
       <c r="P22" s="11">
@@ -3349,13 +3360,13 @@
       <c r="J23" s="15"/>
       <c r="K23" s="96"/>
       <c r="L23" s="136" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M23" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N23" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O23" s="58"/>
       <c r="P23" s="11">
@@ -3366,7 +3377,7 @@
       </c>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>29</v>
       </c>
@@ -3395,13 +3406,13 @@
       <c r="J24" s="15"/>
       <c r="K24" s="96"/>
       <c r="L24" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M24" s="99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N24" s="99" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="O24" s="58"/>
       <c r="P24" s="11">
@@ -3412,7 +3423,7 @@
       </c>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>30</v>
       </c>
@@ -3441,12 +3452,14 @@
       <c r="J25" s="15"/>
       <c r="K25" s="96"/>
       <c r="L25" s="97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M25" s="99" t="s">
-        <v>308</v>
-      </c>
-      <c r="N25" s="99"/>
+        <v>307</v>
+      </c>
+      <c r="N25" s="99" t="s">
+        <v>304</v>
+      </c>
       <c r="O25" s="58"/>
       <c r="P25" s="11">
         <v>213</v>
@@ -3489,7 +3502,7 @@
       <c r="L26" s="97"/>
       <c r="M26" s="99"/>
       <c r="N26" s="99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O26" s="58"/>
       <c r="P26" s="11">
@@ -3572,10 +3585,10 @@
       <c r="K28" s="96"/>
       <c r="L28" s="97"/>
       <c r="M28" s="99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N28" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O28" s="58"/>
       <c r="P28" s="11">
@@ -3615,7 +3628,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="96"/>
       <c r="L29" s="97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
@@ -3628,7 +3641,7 @@
       </c>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>36</v>
       </c>
@@ -3657,13 +3670,13 @@
       <c r="J30" s="15"/>
       <c r="K30" s="96"/>
       <c r="L30" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="M30" s="99" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="M30" s="137" t="s">
+        <v>319</v>
       </c>
       <c r="N30" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O30" s="58"/>
       <c r="P30" s="11">
@@ -3726,13 +3739,13 @@
         <v>192</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M32" s="99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N32" s="99" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="O32" s="58"/>
       <c r="P32" s="11">
@@ -3770,13 +3783,13 @@
       <c r="J33" s="15"/>
       <c r="K33" s="96"/>
       <c r="L33" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M33" s="99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N33" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O33" s="58"/>
       <c r="P33" s="11">
@@ -3816,13 +3829,13 @@
       <c r="J34" s="15"/>
       <c r="K34" s="96"/>
       <c r="L34" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M34" s="99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N34" s="99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O34" s="58"/>
       <c r="P34" s="11">
@@ -3864,11 +3877,11 @@
         <v>195</v>
       </c>
       <c r="L35" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M35" s="99"/>
       <c r="N35" s="99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O35" s="58"/>
       <c r="P35" s="11">
@@ -3908,13 +3921,13 @@
       <c r="J36" s="15"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M36" s="99" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="N36" s="99" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O36" s="58"/>
       <c r="P36" s="11">
@@ -3954,13 +3967,13 @@
       <c r="J37" s="15"/>
       <c r="K37" s="96"/>
       <c r="L37" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M37" s="99" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N37" s="99" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="O37" s="58"/>
       <c r="P37" s="11">
@@ -4088,7 +4101,7 @@
         <v>269</v>
       </c>
       <c r="L40" s="97" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M40" s="99"/>
       <c r="N40" s="99"/>
@@ -4122,7 +4135,7 @@
         <v>164</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H41" s="57"/>
       <c r="I41" s="91" t="s">
@@ -4131,13 +4144,13 @@
       <c r="J41" s="15"/>
       <c r="K41" s="96"/>
       <c r="L41" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M41" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N41" s="99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O41" s="58"/>
       <c r="P41" s="11">
@@ -4168,7 +4181,7 @@
         <v>164</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" s="57"/>
       <c r="I42" s="91" t="s">
@@ -4179,13 +4192,13 @@
         <v>275</v>
       </c>
       <c r="L42" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M42" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N42" s="99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O42" s="58"/>
       <c r="P42" s="11">
@@ -4348,7 +4361,7 @@
       <c r="J46" s="15"/>
       <c r="K46" s="96"/>
       <c r="L46" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M46" s="99"/>
       <c r="N46" s="99"/>
@@ -4392,7 +4405,7 @@
       <c r="J47" s="15"/>
       <c r="K47" s="96"/>
       <c r="L47" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M47" s="99"/>
       <c r="N47" s="99"/>
@@ -4434,7 +4447,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="96"/>
       <c r="L48" s="97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M48" s="99"/>
       <c r="N48" s="99"/>
@@ -4469,7 +4482,7 @@
         <v>164</v>
       </c>
       <c r="G49" s="135" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="H49" s="57"/>
       <c r="I49" s="91" t="s">
@@ -4481,10 +4494,10 @@
         <v>252</v>
       </c>
       <c r="M49" s="99" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="N49" s="99" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="O49" s="58"/>
       <c r="P49" s="11">
@@ -4515,7 +4528,7 @@
         <v>164</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H50" s="57"/>
       <c r="I50" s="91" t="s">
@@ -4526,13 +4539,13 @@
         <v>232</v>
       </c>
       <c r="L50" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M50" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N50" s="99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O50" s="58"/>
       <c r="P50" s="11">
@@ -5445,49 +5458,49 @@
       <c r="B1" s="101"/>
       <c r="C1" s="106"/>
       <c r="D1" s="109" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
       <c r="G1" s="106"/>
       <c r="H1" s="109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" s="101"/>
       <c r="J1" s="101"/>
       <c r="K1" s="106"/>
       <c r="L1" s="109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M1" s="101"/>
       <c r="N1" s="101"/>
       <c r="O1" s="106"/>
       <c r="P1" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
       <c r="S1" s="106"/>
       <c r="T1" s="109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U1" s="101"/>
       <c r="V1" s="101"/>
       <c r="W1" s="106"/>
       <c r="X1" s="109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y1" s="101"/>
       <c r="Z1" s="101"/>
       <c r="AA1" s="106"/>
       <c r="AB1" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC1" s="101"/>
       <c r="AD1" s="101"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG1" s="112"/>
       <c r="AH1" s="112"/>
@@ -5634,7 +5647,7 @@
     </row>
     <row r="3" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="108"/>
@@ -5692,7 +5705,7 @@
     </row>
     <row r="4" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="107"/>
@@ -5750,7 +5763,7 @@
     </row>
     <row r="5" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="121"/>
       <c r="C5" s="108"/>
@@ -5808,7 +5821,7 @@
     </row>
     <row r="6" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="126"/>
       <c r="C6" s="107"/>
@@ -5866,7 +5879,7 @@
     </row>
     <row r="7" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="126"/>
       <c r="C7" s="107"/>
@@ -5924,7 +5937,7 @@
     </row>
     <row r="8" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="129"/>
       <c r="C8" s="108"/>
@@ -6038,18 +6051,18 @@
     </row>
     <row r="10" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="102"/>
       <c r="C10" s="107"/>
       <c r="D10" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G10" s="107"/>
       <c r="H10" s="110"/>
@@ -6102,23 +6115,23 @@
     </row>
     <row r="11" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="107"/>
       <c r="D11" s="110"/>
       <c r="E11" s="102"/>
       <c r="F11" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J11" s="102"/>
       <c r="K11" s="107"/>
@@ -6168,23 +6181,23 @@
     </row>
     <row r="12" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" s="102"/>
       <c r="C12" s="107"/>
       <c r="D12" s="110"/>
       <c r="E12" s="102"/>
       <c r="F12" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H12" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="107"/>
@@ -6234,25 +6247,25 @@
     </row>
     <row r="13" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="102"/>
       <c r="C13" s="107"/>
       <c r="D13" s="110"/>
       <c r="E13" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H13" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="107"/>
@@ -6302,25 +6315,25 @@
     </row>
     <row r="14" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="107"/>
       <c r="D14" s="110"/>
       <c r="E14" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="107"/>
@@ -6370,22 +6383,22 @@
     </row>
     <row r="15" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="107"/>
       <c r="D15" s="110"/>
       <c r="E15" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F15" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H15" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
@@ -6436,25 +6449,25 @@
     </row>
     <row r="16" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="107"/>
       <c r="D16" s="110"/>
       <c r="E16" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H16" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="107"/>
@@ -6504,25 +6517,25 @@
     </row>
     <row r="17" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" s="102"/>
       <c r="C17" s="107"/>
       <c r="D17" s="110"/>
       <c r="E17" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H17" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J17" s="102"/>
       <c r="K17" s="107"/>
@@ -6572,21 +6585,21 @@
     </row>
     <row r="18" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="102"/>
       <c r="C18" s="107"/>
       <c r="D18" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="102"/>
@@ -6638,25 +6651,25 @@
     </row>
     <row r="19" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="102"/>
       <c r="C19" s="107"/>
       <c r="D19" s="110"/>
       <c r="E19" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G19" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H19" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J19" s="102"/>
       <c r="K19" s="107"/>
@@ -6706,25 +6719,25 @@
     </row>
     <row r="20" spans="1:54" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="102"/>
       <c r="C20" s="107"/>
       <c r="D20" s="110"/>
       <c r="E20" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G20" s="107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J20" s="102"/>
       <c r="K20" s="107"/>
@@ -6774,7 +6787,7 @@
     </row>
     <row r="21" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" s="102"/>
       <c r="C21" s="107"/>
@@ -6783,10 +6796,10 @@
       <c r="F21" s="102"/>
       <c r="G21" s="107"/>
       <c r="H21" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J21" s="102"/>
       <c r="K21" s="107"/>
